--- a/data/predictions/preds_answerFromTable_b1.xlsx
+++ b/data/predictions/preds_answerFromTable_b1.xlsx
@@ -25,10 +25,10 @@
     <t xml:space="preserve">question_uid</t>
   </si>
   <si>
-    <t xml:space="preserve">gptAnswer_b1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extractedAnswer_b1</t>
+    <t xml:space="preserve">gptAnswer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extractedAnswer</t>
   </si>
   <si>
     <t xml:space="preserve">label</t>
@@ -1503,7 +1503,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]"/>
     <numFmt numFmtId="166" formatCode="0.00\ %"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1532,12 +1532,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1589,48 +1583,44 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1653,50 +1643,50 @@
   </sheetPr>
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F102" activeCellId="0" sqref="F102"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="37.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="35.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="22.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1705,19 +1695,19 @@
       <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="0" t="s">
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1726,46 +1716,46 @@
       <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="2" t="n">
         <v>3980.6</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="0" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="525.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1774,43 +1764,43 @@
       <c r="C5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="2" t="n">
         <v>0.96</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="I5" s="0" t="s">
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="I5" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="2" t="n">
         <v>-0.05</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="0" t="s">
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1819,25 +1809,25 @@
       <c r="C7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="2" t="n">
         <v>51.49</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="0" t="s">
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="0" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1846,43 +1836,43 @@
       <c r="C8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="2" t="n">
         <v>149.68</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="0" t="s">
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="0" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="6"/>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1891,22 +1881,22 @@
       <c r="C10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="2" t="n">
         <v>4.9</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="0" t="s">
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1915,25 +1905,25 @@
       <c r="C11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="2" t="n">
         <v>1162802.5</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="0" t="s">
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="0" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1942,25 +1932,25 @@
       <c r="C12" s="5" t="n">
         <v>972</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="2" t="n">
         <v>972</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="0" t="s">
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="0" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1969,25 +1959,25 @@
       <c r="C13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="2" t="n">
         <v>6.98</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="0" t="s">
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="0" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1996,22 +1986,22 @@
       <c r="C14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="0" t="s">
+      <c r="E14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="0" t="s">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2020,25 +2010,25 @@
       <c r="C15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="2" t="n">
         <v>53.73</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="0" t="s">
+      <c r="E15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="0" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2047,22 +2037,22 @@
       <c r="C16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="0" t="s">
+      <c r="E16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="I16" s="0" t="s">
+      <c r="G16" s="2"/>
+      <c r="I16" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2071,22 +2061,22 @@
       <c r="C17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="2" t="n">
         <v>7634.33</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="0" t="s">
+      <c r="E17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2095,22 +2085,22 @@
       <c r="C18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="0" t="s">
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="0" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2119,48 +2109,48 @@
       <c r="C19" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="0" t="s">
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="7" t="n">
+      <c r="C20" s="6" t="n">
         <v>58000</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="2" t="n">
         <v>-58</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="0" t="s">
+      <c r="E20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2169,25 +2159,25 @@
       <c r="C21" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="2" t="n">
         <v>78.45</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="0" t="s">
+      <c r="E21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="0" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2196,22 +2186,22 @@
       <c r="C22" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="2" t="n">
         <v>5384</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="0" t="s">
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="I22" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2220,43 +2210,43 @@
       <c r="C23" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="0" t="s">
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="8" t="n">
+      <c r="C24" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="0" t="s">
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="0" t="s">
+      <c r="I24" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2265,43 +2255,43 @@
       <c r="C25" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="2" t="n">
         <v>57.86</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="0" t="s">
+      <c r="E25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="0" t="s">
+      <c r="I25" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="I26" s="0" t="s">
+      <c r="E26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="I26" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2310,19 +2300,19 @@
       <c r="C27" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="2" t="n">
         <v>-12324</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="I27" s="0" t="s">
+      <c r="E27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="I27" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2331,40 +2321,40 @@
       <c r="C28" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="2" t="n">
         <v>1.93</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="I28" s="0" t="s">
+      <c r="E28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="I28" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="2" t="n">
         <v>2019</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="I29" s="0" t="s">
+      <c r="E29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="I29" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2373,19 +2363,19 @@
       <c r="C30" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="2" t="n">
         <v>0.69</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="I30" s="0" t="s">
+      <c r="E30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="I30" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2394,16 +2384,16 @@
       <c r="C31" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="6"/>
+      <c r="E31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2412,24 +2402,24 @@
       <c r="C32" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="2" t="n">
         <v>7.2</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="6" t="s">
+      <c r="E32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="H32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="0" t="s">
+      <c r="I32" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2438,22 +2428,22 @@
       <c r="C33" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="2" t="n">
         <v>0.85</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="0" t="s">
+      <c r="E33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I33" s="0" t="s">
+      <c r="I33" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2462,19 +2452,19 @@
       <c r="C34" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="0" t="s">
+      <c r="E34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2483,43 +2473,43 @@
       <c r="C35" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="2" t="n">
         <v>298.08</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="0" t="s">
+      <c r="E35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I35" s="0" t="s">
+      <c r="I35" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="6"/>
-      <c r="I36" s="0" t="s">
+      <c r="E36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="I36" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2528,70 +2518,70 @@
       <c r="C37" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="2" t="n">
         <v>51970</v>
       </c>
-      <c r="E37" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="0" t="s">
+      <c r="E37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="0" t="s">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I37" s="0" t="s">
+      <c r="I37" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E38" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="0" t="s">
+      <c r="E38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="6"/>
-      <c r="I38" s="0" t="s">
+      <c r="G38" s="2"/>
+      <c r="I38" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E39" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="I39" s="0" t="s">
+      <c r="E39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="I39" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2600,22 +2590,22 @@
       <c r="C40" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40" s="2" t="n">
         <v>85.34</v>
       </c>
-      <c r="E40" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="0" t="s">
+      <c r="E40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I40" s="0" t="s">
+      <c r="I40" s="2" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2624,67 +2614,67 @@
       <c r="C41" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41" s="2" t="n">
         <v>2810639769</v>
       </c>
-      <c r="E41" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="6"/>
-      <c r="I41" s="0" t="s">
+      <c r="E41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="I41" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E42" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="I42" s="0" t="s">
+      <c r="E42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="I42" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="2" t="n">
         <v>0.11</v>
       </c>
-      <c r="E43" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="0" t="s">
+      <c r="E43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="0" t="s">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I43" s="0" t="s">
+      <c r="I43" s="2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2693,40 +2683,40 @@
       <c r="C44" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="2" t="n">
         <v>2248</v>
       </c>
-      <c r="E44" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="6"/>
-      <c r="I44" s="0" t="s">
+      <c r="E44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="I44" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="2" t="n">
         <v>2018</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="6"/>
-      <c r="I45" s="0" t="s">
+      <c r="E45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="I45" s="2" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -2735,52 +2725,52 @@
       <c r="C46" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46" s="2" t="n">
         <v>-32.34</v>
       </c>
-      <c r="E46" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="0" t="s">
+      <c r="E46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="0" t="s">
+      <c r="G46" s="2"/>
+      <c r="H46" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I46" s="0" t="s">
+      <c r="I46" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47" s="2" t="n">
         <v>828035.14</v>
       </c>
-      <c r="E47" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="0" t="s">
+      <c r="E47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="0" t="s">
+      <c r="G47" s="2"/>
+      <c r="H47" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I47" s="0" t="s">
+      <c r="I47" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -2789,19 +2779,19 @@
       <c r="C48" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E48" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="0" t="s">
+      <c r="E48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -2810,46 +2800,46 @@
       <c r="C49" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49" s="2" t="n">
         <v>153.07</v>
       </c>
-      <c r="E49" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="0" t="s">
+      <c r="E49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I49" s="0" t="s">
+      <c r="I49" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E50" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="0" t="s">
+      <c r="E50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G50" s="6"/>
-      <c r="I50" s="0" t="s">
+      <c r="G50" s="2"/>
+      <c r="I50" s="2" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -2858,22 +2848,22 @@
       <c r="C51" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="E51" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="0" t="s">
+      <c r="E51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I51" s="0" t="s">
+      <c r="I51" s="2" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2882,25 +2872,25 @@
       <c r="C52" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52" s="2" t="n">
         <v>10.94</v>
       </c>
-      <c r="E52" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="0" t="s">
+      <c r="E52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G52" s="6"/>
-      <c r="H52" s="0" t="s">
+      <c r="G52" s="2"/>
+      <c r="H52" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I52" s="0" t="s">
+      <c r="I52" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -2909,22 +2899,22 @@
       <c r="C53" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53" s="2" t="n">
         <v>12764.5</v>
       </c>
-      <c r="E53" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="0" t="s">
+      <c r="E53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I53" s="0" t="s">
+      <c r="I53" s="2" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -2933,22 +2923,22 @@
       <c r="C54" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54" s="2" t="n">
         <v>3.9</v>
       </c>
-      <c r="E54" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="6"/>
-      <c r="H54" s="0" t="s">
+      <c r="E54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I54" s="0" t="s">
+      <c r="I54" s="2" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -2957,22 +2947,22 @@
       <c r="C55" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55" s="2" t="n">
         <v>69.71</v>
       </c>
-      <c r="E55" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="6"/>
-      <c r="H55" s="0" t="s">
+      <c r="E55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I55" s="0" t="s">
+      <c r="I55" s="2" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -2981,43 +2971,43 @@
       <c r="C56" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56" s="2" t="n">
         <v>0.9</v>
       </c>
-      <c r="E56" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="6"/>
-      <c r="H56" s="0" t="s">
+      <c r="E56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I56" s="0" t="s">
+      <c r="I56" s="2" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="2" t="s">
         <v>235</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E57" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="0" t="s">
+      <c r="E57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G57" s="6"/>
+      <c r="G57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="2" t="s">
         <v>239</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -3026,46 +3016,46 @@
       <c r="C58" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58" s="2" t="n">
         <v>3604.67</v>
       </c>
-      <c r="E58" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="0" t="s">
+      <c r="E58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G58" s="6"/>
-      <c r="H58" s="0" t="s">
+      <c r="G58" s="2"/>
+      <c r="H58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I58" s="0" t="s">
+      <c r="I58" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="2" t="s">
         <v>243</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E59" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="6"/>
-      <c r="I59" s="0" t="s">
+      <c r="E59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="I59" s="2" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -3074,19 +3064,19 @@
       <c r="C60" s="5" t="n">
         <v>0.803</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="E60" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="6"/>
-      <c r="I60" s="0" t="s">
+      <c r="E60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="I60" s="2" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -3095,67 +3085,67 @@
       <c r="C61" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E61" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="6"/>
-      <c r="H61" s="0" t="s">
+      <c r="E61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="2" t="s">
         <v>254</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62" s="2" t="n">
         <v>-3006</v>
       </c>
-      <c r="E62" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="0" t="s">
+      <c r="E62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G62" s="6"/>
-      <c r="H62" s="0" t="s">
+      <c r="G62" s="2"/>
+      <c r="H62" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="0" t="s">
+      <c r="I62" s="2" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="2" t="s">
         <v>259</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63" s="2" t="n">
         <v>2019</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E63" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="6"/>
-      <c r="I63" s="0" t="s">
+      <c r="E63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="I63" s="2" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="2" t="s">
         <v>262</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -3164,24 +3154,24 @@
       <c r="C64" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64" s="2" t="n">
         <v>14972</v>
       </c>
-      <c r="E64" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="6" t="s">
+      <c r="E64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="H64" s="0" t="s">
+      <c r="H64" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I64" s="0" t="s">
+      <c r="I64" s="2" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="2" t="s">
         <v>267</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -3190,25 +3180,25 @@
       <c r="C65" s="5" t="n">
         <v>0.559</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65" s="2" t="n">
         <v>50.69</v>
       </c>
-      <c r="E65" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="0" t="s">
+      <c r="E65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="0" t="s">
+      <c r="G65" s="2"/>
+      <c r="H65" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I65" s="0" t="s">
+      <c r="I65" s="2" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="2" t="s">
         <v>271</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -3217,43 +3207,43 @@
       <c r="C66" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66" s="2" t="n">
         <v>887816</v>
       </c>
-      <c r="E66" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="0" t="s">
+      <c r="E66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G66" s="6"/>
-      <c r="I66" s="0" t="s">
+      <c r="G66" s="2"/>
+      <c r="I66" s="2" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E67" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="6"/>
-      <c r="I67" s="0" t="s">
+      <c r="E67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="I67" s="2" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="2" t="s">
         <v>278</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -3262,82 +3252,82 @@
       <c r="C68" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68" s="2" t="n">
         <v>2.42</v>
       </c>
-      <c r="E68" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="6"/>
-      <c r="I68" s="0" t="s">
+      <c r="E68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="I68" s="2" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E69" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="6"/>
-      <c r="I69" s="0" t="s">
+      <c r="E69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="I69" s="2" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E70" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="6"/>
-      <c r="I70" s="0" t="s">
+      <c r="E70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="I70" s="2" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E71" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="6"/>
-      <c r="I71" s="0" t="s">
+      <c r="E71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="I71" s="2" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="2" t="s">
         <v>293</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -3346,19 +3336,19 @@
       <c r="C72" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E72" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" s="6"/>
-      <c r="H72" s="0" t="s">
+      <c r="E72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="2" t="s">
         <v>297</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -3367,22 +3357,22 @@
       <c r="C73" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73" s="2" t="n">
         <v>0.95</v>
       </c>
-      <c r="E73" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" s="0" t="s">
+      <c r="E73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G73" s="6"/>
-      <c r="I73" s="0" t="s">
+      <c r="G73" s="2"/>
+      <c r="I73" s="2" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="2" t="s">
         <v>301</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -3391,22 +3381,22 @@
       <c r="C74" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="D74" s="2" t="n">
         <v>10160</v>
       </c>
-      <c r="E74" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" s="6"/>
-      <c r="H74" s="0" t="s">
+      <c r="E74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I74" s="0" t="s">
+      <c r="I74" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="2" t="s">
         <v>305</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -3415,43 +3405,43 @@
       <c r="C75" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="D75" s="2" t="n">
         <v>0.73</v>
       </c>
-      <c r="E75" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="6"/>
-      <c r="H75" s="0" t="s">
+      <c r="E75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I75" s="0" t="s">
+      <c r="I75" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="2" t="s">
         <v>309</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76" s="2" t="n">
         <v>2019</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E76" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="6"/>
-      <c r="I76" s="0" t="s">
+      <c r="E76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="I76" s="2" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="2" t="s">
         <v>312</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -3460,27 +3450,27 @@
       <c r="C77" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77" s="2" t="n">
         <v>8809</v>
       </c>
-      <c r="E77" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" s="0" t="s">
+      <c r="E77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="G77" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="H77" s="0" t="s">
+      <c r="H77" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I77" s="0" t="s">
+      <c r="I77" s="2" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="2" t="s">
         <v>318</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -3489,61 +3479,61 @@
       <c r="C78" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E78" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" s="0" t="s">
+      <c r="E78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="G78" s="6"/>
+      <c r="G78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="2" t="s">
         <v>323</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79" s="2" t="n">
         <v>2018</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E79" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="6"/>
-      <c r="I79" s="0" t="s">
+      <c r="E79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="I79" s="2" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="2" t="s">
         <v>326</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E80" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" s="6"/>
-      <c r="I80" s="0" t="s">
+      <c r="E80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="I80" s="2" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -3552,46 +3542,46 @@
       <c r="C81" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81" s="2" t="n">
         <v>121736</v>
       </c>
-      <c r="E81" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81" s="0" t="s">
+      <c r="E81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G81" s="6"/>
-      <c r="H81" s="0" t="s">
+      <c r="G81" s="2"/>
+      <c r="H81" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I81" s="0" t="s">
+      <c r="I81" s="2" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="2" t="s">
         <v>333</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E82" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" s="6"/>
-      <c r="I82" s="0" t="s">
+      <c r="E82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="I82" s="2" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="2" t="s">
         <v>337</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -3600,19 +3590,19 @@
       <c r="C83" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E83" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" s="6"/>
-      <c r="H83" s="0" t="s">
+      <c r="E83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="2" t="s">
         <v>341</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -3621,22 +3611,22 @@
       <c r="C84" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84" s="2" t="n">
         <v>70.37</v>
       </c>
-      <c r="E84" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" s="6"/>
-      <c r="H84" s="0" t="s">
+      <c r="E84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I84" s="0" t="s">
+      <c r="I84" s="2" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="2" t="s">
         <v>345</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -3645,25 +3635,25 @@
       <c r="C85" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85" s="2" t="n">
         <v>171.09</v>
       </c>
-      <c r="E85" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F85" s="0" t="s">
+      <c r="E85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G85" s="6"/>
-      <c r="H85" s="0" t="s">
+      <c r="G85" s="2"/>
+      <c r="H85" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I85" s="0" t="s">
+      <c r="I85" s="2" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="2" t="s">
         <v>349</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -3672,25 +3662,25 @@
       <c r="C86" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D86" s="0" t="n">
+      <c r="D86" s="2" t="n">
         <v>211471.5</v>
       </c>
-      <c r="E86" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" s="0" t="s">
+      <c r="E86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G86" s="6"/>
-      <c r="H86" s="0" t="s">
+      <c r="G86" s="2"/>
+      <c r="H86" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I86" s="0" t="s">
+      <c r="I86" s="2" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="2" t="s">
         <v>353</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -3699,25 +3689,25 @@
       <c r="C87" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="D87" s="0" t="n">
+      <c r="D87" s="2" t="n">
         <v>1072</v>
       </c>
-      <c r="E87" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F87" s="0" t="s">
+      <c r="E87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G87" s="6"/>
-      <c r="H87" s="0" t="s">
+      <c r="G87" s="2"/>
+      <c r="H87" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I87" s="0" t="s">
+      <c r="I87" s="2" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -3726,22 +3716,22 @@
       <c r="C88" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D88" s="0" t="n">
+      <c r="D88" s="2" t="n">
         <v>7.69</v>
       </c>
-      <c r="E88" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" s="6"/>
-      <c r="H88" s="0" t="s">
+      <c r="E88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I88" s="0" t="s">
+      <c r="I88" s="2" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="2" t="s">
         <v>361</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -3750,24 +3740,24 @@
       <c r="C89" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D89" s="0" t="n">
+      <c r="D89" s="2" t="n">
         <v>0.63</v>
       </c>
-      <c r="E89" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" s="6" t="s">
+      <c r="E89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="H89" s="0" t="s">
+      <c r="H89" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I89" s="0" t="s">
+      <c r="I89" s="2" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="2" t="s">
         <v>365</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -3776,25 +3766,25 @@
       <c r="C90" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D90" s="0" t="n">
+      <c r="D90" s="2" t="n">
         <v>27.65</v>
       </c>
-      <c r="E90" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F90" s="0" t="s">
+      <c r="E90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G90" s="6"/>
-      <c r="H90" s="0" t="s">
+      <c r="G90" s="2"/>
+      <c r="H90" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I90" s="0" t="s">
+      <c r="I90" s="2" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="2" t="s">
         <v>369</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -3803,16 +3793,16 @@
       <c r="C91" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="E91" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="6"/>
+      <c r="E91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="2" t="s">
         <v>373</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -3821,40 +3811,40 @@
       <c r="C92" s="5" t="n">
         <v>2018</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E92" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" s="6"/>
-      <c r="I92" s="0" t="s">
+      <c r="E92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="I92" s="2" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="2" t="s">
         <v>376</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="E93" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" s="6"/>
-      <c r="H93" s="0" t="s">
+      <c r="E93" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="2" t="s">
         <v>380</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -3863,16 +3853,16 @@
       <c r="C94" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E94" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" s="6"/>
+      <c r="E94" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="2"/>
     </row>
     <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="2" t="s">
         <v>384</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -3881,16 +3871,16 @@
       <c r="C95" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E95" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" s="6"/>
+      <c r="E95" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="2" t="s">
         <v>388</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -3899,64 +3889,64 @@
       <c r="C96" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D96" s="0" t="n">
+      <c r="D96" s="2" t="n">
         <v>4.29</v>
       </c>
-      <c r="E96" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" s="6"/>
-      <c r="H96" s="0" t="s">
+      <c r="E96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I96" s="0" t="s">
+      <c r="I96" s="2" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="2" t="s">
         <v>392</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C97" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E97" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" s="6"/>
-      <c r="I97" s="0" t="s">
+      <c r="E97" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" s="2"/>
+      <c r="I97" s="2" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="2" t="s">
         <v>395</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="9" t="s">
         <v>397</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E98" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F98" s="0" t="s">
+      <c r="E98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G98" s="6"/>
+      <c r="G98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="2" t="s">
         <v>399</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -3965,22 +3955,22 @@
       <c r="C99" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D99" s="0" t="n">
+      <c r="D99" s="2" t="n">
         <v>45.3</v>
       </c>
-      <c r="E99" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="6"/>
-      <c r="H99" s="0" t="s">
+      <c r="E99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I99" s="0" t="s">
+      <c r="I99" s="2" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="2" t="s">
         <v>403</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -3989,19 +3979,19 @@
       <c r="C100" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E100" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" s="6"/>
-      <c r="I100" s="0" t="s">
+      <c r="E100" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G100" s="2"/>
+      <c r="I100" s="2" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="2" t="s">
         <v>406</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -4010,151 +4000,151 @@
       <c r="C101" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="D101" s="0" t="n">
+      <c r="D101" s="2" t="n">
         <v>258002</v>
       </c>
-      <c r="E101" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F101" s="0" t="s">
+      <c r="E101" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G101" s="6"/>
-      <c r="H101" s="0" t="s">
+      <c r="G101" s="2"/>
+      <c r="H101" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I101" s="0" t="s">
+      <c r="I101" s="2" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G102" s="6"/>
+      <c r="G102" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G103" s="6"/>
+      <c r="G103" s="2"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G104" s="6"/>
+      <c r="G104" s="2"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G105" s="6"/>
+      <c r="G105" s="2"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G106" s="6"/>
+      <c r="G106" s="2"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G107" s="6"/>
+      <c r="G107" s="2"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G108" s="6"/>
+      <c r="G108" s="2"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G109" s="6"/>
+      <c r="G109" s="2"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G110" s="6"/>
+      <c r="G110" s="2"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G111" s="6"/>
+      <c r="G111" s="2"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G112" s="6"/>
+      <c r="G112" s="2"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G113" s="6"/>
+      <c r="G113" s="2"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G114" s="6"/>
+      <c r="G114" s="2"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G115" s="6"/>
+      <c r="G115" s="2"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G116" s="6"/>
+      <c r="G116" s="2"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G117" s="6"/>
+      <c r="G117" s="2"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G118" s="6"/>
+      <c r="G118" s="2"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G119" s="6"/>
+      <c r="G119" s="2"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G120" s="6"/>
+      <c r="G120" s="2"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G121" s="6"/>
+      <c r="G121" s="2"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G122" s="6"/>
+      <c r="G122" s="2"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G123" s="6"/>
+      <c r="G123" s="2"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G124" s="6"/>
+      <c r="G124" s="2"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G125" s="6"/>
+      <c r="G125" s="2"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G126" s="6"/>
+      <c r="G126" s="2"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G127" s="6"/>
+      <c r="G127" s="2"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G128" s="6"/>
+      <c r="G128" s="2"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G129" s="6"/>
+      <c r="G129" s="2"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G130" s="6"/>
+      <c r="G130" s="2"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G131" s="6"/>
+      <c r="G131" s="2"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G132" s="6"/>
+      <c r="G132" s="2"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G133" s="6"/>
+      <c r="G133" s="2"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G134" s="6"/>
+      <c r="G134" s="2"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G135" s="6"/>
+      <c r="G135" s="2"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G136" s="6"/>
+      <c r="G136" s="2"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G137" s="6"/>
+      <c r="G137" s="2"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G138" s="6"/>
+      <c r="G138" s="2"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G139" s="6"/>
+      <c r="G139" s="2"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G140" s="6"/>
+      <c r="G140" s="2"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G141" s="6"/>
+      <c r="G141" s="2"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G142" s="6"/>
+      <c r="G142" s="2"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G143" s="6"/>
+      <c r="G143" s="2"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G144" s="6"/>
+      <c r="G144" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/predictions/preds_answerFromTable_b1.xlsx
+++ b/data/predictions/preds_answerFromTable_b1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="418">
   <si>
     <t xml:space="preserve">question_uid</t>
   </si>
@@ -31,22 +31,46 @@
     <t xml:space="preserve">extractedAnswer</t>
   </si>
   <si>
+    <t xml:space="preserve">derivation</t>
+  </si>
+  <si>
     <t xml:space="preserve">label</t>
   </si>
   <si>
+    <t xml:space="preserve">scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
     <t xml:space="preserve">correct</t>
   </si>
   <si>
     <t xml:space="preserve">problem</t>
   </si>
   <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">derivation</t>
+    <t xml:space="preserve">ValueDetectionError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ScaleError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FormulaError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CalculationError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RoundingError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MissingCalculationError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MisunderstandingError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OtherError</t>
   </si>
   <si>
     <t xml:space="preserve">921d80d2-1ea6-4c31-bf06-6393e5ca70ab</t>
@@ -61,10 +85,13 @@
     <t xml:space="preserve">['146']</t>
   </si>
   <si>
+    <t xml:space="preserve">million</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRUE</t>
   </si>
   <si>
-    <t xml:space="preserve">million</t>
+    <t xml:space="preserve">FALSE</t>
   </si>
   <si>
     <t xml:space="preserve">82233a8d-8e3d-4d17-ae97-ba62b4a8ba70</t>
@@ -76,13 +103,10 @@
     <t xml:space="preserve">$1,536.7 million</t>
   </si>
   <si>
-    <t xml:space="preserve">FALSE</t>
+    <t xml:space="preserve">1,536.7+1,378.2+1,065.7</t>
   </si>
   <si>
     <t xml:space="preserve">values missing,calculation missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,536.7+1,378.2+1,065.7</t>
   </si>
   <si>
     <t xml:space="preserve">32302c33-8761-4f54-9ca6-b6c1efc2e8d9</t>
@@ -148,10 +172,10 @@
 The asset to liability ratio remains the same as of December 31, 2018, compared to October 2, 2017. Therefore, the difference is 0.</t>
   </si>
   <si>
+    <t xml:space="preserve">(51.2/157.4)-(51.5/158.1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">percent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(51.2/157.4)-(51.5/158.1)</t>
   </si>
   <si>
     <t xml:space="preserve">e0367ad3-a394-49c6-b603-0122adddbf6f</t>
@@ -169,10 +193,10 @@
     <t xml:space="preserve">51.4%</t>
   </si>
   <si>
+    <t xml:space="preserve">($3,341/$6,489)</t>
+  </si>
+  <si>
     <t xml:space="preserve">rounding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">($3,341/$6,489)</t>
   </si>
   <si>
     <t xml:space="preserve">4f3f12e0-ba32-4ebd-91c0-c539296d42fd</t>
@@ -229,10 +253,10 @@
     <t xml:space="preserve">$1,162,802.5</t>
   </si>
   <si>
+    <t xml:space="preserve">(1,203,980 + 1,121,625) / 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">thousand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1,203,980 + 1,121,625) / 2</t>
   </si>
   <si>
     <t xml:space="preserve">7b396a0c-7fd7-444c-af8f-c5ff59deab61</t>
@@ -295,15 +319,15 @@
     <t xml:space="preserve">March 31, 2018</t>
   </si>
   <si>
+    <t xml:space="preserve">locate and analyze Total operating expenses in row 10</t>
+  </si>
+  <si>
     <t xml:space="preserve">['2018']</t>
   </si>
   <si>
     <t xml:space="preserve">too much information</t>
   </si>
   <si>
-    <t xml:space="preserve">locate and analyze Total operating expenses in row 10</t>
-  </si>
-  <si>
     <t xml:space="preserve">72287169-7b48-407c-a501-674ca1fc55fa</t>
   </si>
   <si>
@@ -346,13 +370,13 @@
     <t xml:space="preserve">The increase in Fixed Pay for Alan Jope CEO from 2019 to 2020 is €58,000.</t>
   </si>
   <si>
+    <t xml:space="preserve">1,450 - 1,508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ground truth is wrong</t>
+  </si>
+  <si>
     <t xml:space="preserve">sign, scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ground truth is wrong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,450 - 1,508</t>
   </si>
   <si>
     <t xml:space="preserve">7e0792c2-3394-4c8a-b079-d42d1b20f669</t>
@@ -434,10 +458,10 @@
     <t xml:space="preserve">Based on the given table, the long-lived asset amount in Ireland exceeded $12,900 million in all three years from 2017 to 2019.</t>
   </si>
   <si>
+    <t xml:space="preserve">12,958</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,958</t>
   </si>
   <si>
     <t xml:space="preserve">6cd322f4-555f-48c5-9524-7de58f773818</t>
@@ -479,10 +503,10 @@
     <t xml:space="preserve">Restricted cash included in other assets, noncurrent was less than $70,000 in the year 2019.</t>
   </si>
   <si>
+    <t xml:space="preserve">locate and analyze Restricted cash included in other assets, noncurrent in row 5</t>
+  </si>
+  <si>
     <t xml:space="preserve">['2019']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">locate and analyze Restricted cash included in other assets, noncurrent in row 5</t>
   </si>
   <si>
     <t xml:space="preserve">ef2d934a-5460-48ed-a41b-71e611687ed0</t>
@@ -525,10 +549,10 @@
     <t xml:space="preserve">7.2</t>
   </si>
   <si>
+    <t xml:space="preserve">421.1-413.9</t>
+  </si>
+  <si>
     <t xml:space="preserve">ground truth scale is wrong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">421.1-413.9</t>
   </si>
   <si>
     <t xml:space="preserve">3d74d05b-e791-4a36-ba96-8b90184b63d9</t>
@@ -582,10 +606,10 @@
     <t xml:space="preserve">The company earned the highest net income in the year 2017.</t>
   </si>
   <si>
+    <t xml:space="preserve">$ 14,092&gt;$ 2,526&gt;$ 1,959&gt;$ (724)&gt; $ (11,807)</t>
+  </si>
+  <si>
     <t xml:space="preserve">['2017']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ 14,092&gt;$ 2,526&gt;$ 1,959&gt;$ (724)&gt; $ (11,807)</t>
   </si>
   <si>
     <t xml:space="preserve">b29fe296-6ee7-4bbf-9345-1357ada085d6</t>
@@ -614,22 +638,22 @@
 3. Volatility (47.8%)</t>
   </si>
   <si>
+    <t xml:space="preserve">Weighted average expected term##Risk-free interest rate##Dividend yield##Volatility</t>
+  </si>
+  <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">Weighted average expected term##Risk-free interest rate##Dividend yield##Volatility</t>
-  </si>
-  <si>
     <t xml:space="preserve">f7b6ba40-fada-4086-ab96-e64d264e1d79</t>
   </si>
   <si>
     <t xml:space="preserve">There are two finance lease cost items: amortization of right-of-use assets and interest on lease liabilities.</t>
   </si>
   <si>
+    <t xml:space="preserve">Amortization of right-of-use assets## Interest on lease liabilities</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amortization of right-of-use assets## Interest on lease liabilities</t>
   </si>
   <si>
     <t xml:space="preserve">35ab893e-41c2-4216-97ba-4e356926d28a</t>
@@ -728,10 +752,10 @@
     <t xml:space="preserve">32.34%</t>
   </si>
   <si>
+    <t xml:space="preserve">(427,244-631,497)/631,497</t>
+  </si>
+  <si>
     <t xml:space="preserve">sign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(427,244-631,497)/631,497</t>
   </si>
   <si>
     <t xml:space="preserve">9da3a124-32c1-418a-87fc-c550a7339fd1</t>
@@ -783,10 +807,10 @@
 4. Restructuring costs</t>
   </si>
   <si>
+    <t xml:space="preserve">Cost of sales##Selling, general and administrative expenses##Amortization of purchased intangibles##Restructuring costs##Other income</t>
+  </si>
+  <si>
     <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost of sales##Selling, general and administrative expenses##Amortization of purchased intangibles##Restructuring costs##Other income</t>
   </si>
   <si>
     <t xml:space="preserve">fe79df59-094a-4fc9-abd3-a47f684e6654</t>
@@ -925,10 +949,10 @@
     <t xml:space="preserve">There are 11 different locations listed in the table.</t>
   </si>
   <si>
+    <t xml:space="preserve">China##Taiwan##United States##Korea##Europe##Japan##Thailand##Singapore##Malaysia##Philippines##Rest of the World</t>
+  </si>
+  <si>
     <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China##Taiwan##United States##Korea##Europe##Japan##Thailand##Singapore##Malaysia##Philippines##Rest of the World</t>
   </si>
   <si>
     <t xml:space="preserve">82877904-264a-4974-b897-dc7c43cf12f3</t>
@@ -967,12 +991,12 @@
     <t xml:space="preserve">$1,756 million, $1,250 million</t>
   </si>
   <si>
+    <t xml:space="preserve">- 1,756 + (-1,250) </t>
+  </si>
+  <si>
     <t xml:space="preserve">missing calculation</t>
   </si>
   <si>
-    <t xml:space="preserve">- 1,756 + (-1,250) </t>
-  </si>
-  <si>
     <t xml:space="preserve">8b82e10e-734b-4fc1-98f6-f625e4d57179</t>
   </si>
   <si>
@@ -991,10 +1015,10 @@
     <t xml:space="preserve"> $0</t>
   </si>
   <si>
+    <t xml:space="preserve">45,631 + (-30,659) </t>
+  </si>
+  <si>
     <t xml:space="preserve">scale not in table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45,631 + (-30,659) </t>
   </si>
   <si>
     <t xml:space="preserve">6efc4abc-068e-42f8-be33-f9ab75e2cddf</t>
@@ -1013,10 +1037,10 @@
 Therefore, the total assets turnover ratio in 2019 was 0.559.</t>
   </si>
   <si>
+    <t xml:space="preserve">77,147 / 152,186</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wrong value used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77,147 / 152,186</t>
   </si>
   <si>
     <t xml:space="preserve">3515d8ab-03ed-4a37-a835-3a1c3eb30ef6</t>
@@ -1062,22 +1086,22 @@
     <t xml:space="preserve">There are 6 different types of operating expenses listed in the table.</t>
   </si>
   <si>
+    <t xml:space="preserve">Cost of equipment sold## Other cost of sales## Staff costs## Selling and administrative costs## Traffic Expenses## Repair and maintenance</t>
+  </si>
+  <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">Cost of equipment sold## Other cost of sales## Staff costs## Selling and administrative costs## Traffic Expenses## Repair and maintenance</t>
-  </si>
-  <si>
     <t xml:space="preserve">a8622cb0-2ad8-451f-b99c-0c7efc257967</t>
   </si>
   <si>
     <t xml:space="preserve">There are three items excluded from the Adjusted EBITDA: transaction related expenses, integration and transformation costs, and special items.</t>
   </si>
   <si>
+    <t xml:space="preserve">transaction related expenses##integration and transformation costs##special items</t>
+  </si>
+  <si>
     <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transaction related expenses##integration and transformation costs##special items</t>
   </si>
   <si>
     <t xml:space="preserve">3b262526-1e70-45c6-8fbb-cc62fb3900da</t>
@@ -1161,13 +1185,13 @@
     <t xml:space="preserve">$4,354</t>
   </si>
   <si>
+    <t xml:space="preserve">4,354 + 4,455 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale only in text</t>
+  </si>
+  <si>
     <t xml:space="preserve">value missing, missing calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale only in text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,354 + 4,455 </t>
   </si>
   <si>
     <t xml:space="preserve">9e86a4a1-9223-4f69-8d29-18a1365b3fe8</t>
@@ -1223,10 +1247,10 @@
     <t xml:space="preserve">There are 9 revenue items in the table.</t>
   </si>
   <si>
+    <t xml:space="preserve">Server products and cloud services## Office products and cloud services## Windows## Gaming## Search advertising## LinkedIn## Enterprise Services## Devices## Other</t>
+  </si>
+  <si>
     <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Server products and cloud services## Office products and cloud services## Windows## Gaming## Search advertising## LinkedIn## Enterprise Services## Devices## Other</t>
   </si>
   <si>
     <t xml:space="preserve">d6e77bbe-649f-49e6-9abf-40acfc07592c</t>
@@ -1503,7 +1527,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]"/>
     <numFmt numFmtId="166" formatCode="0.00\ %"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1532,6 +1556,12 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1583,7 +1613,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1604,8 +1634,16 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1620,10 +1658,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1633,6 +1667,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1641,19 +1692,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:Q144"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="37.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="35.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="22.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="35.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="10.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="33.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="20.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="2" width="25.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="28.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="2" width="17.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="21.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="24.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,2337 +1747,4761 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>3980.6</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="525.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="726.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>0.96</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="310.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>-0.05</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
+      <c r="F6" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>51.49</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>149.68</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>149.68</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2" t="n">
         <v>4.9</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
+      <c r="F10" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="2" t="n">
         <v>1162802.5</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="5" t="n">
+        <v>65</v>
+      </c>
+      <c r="C12" s="6" t="n">
         <v>972</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="2" t="n">
         <v>972</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="2" t="n">
         <v>6.98</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="2" t="n">
         <v>53.73</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>73</v>
+        <v>80</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="I16" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="2" t="n">
         <v>7634.33</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>18</v>
+      <c r="F17" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>13</v>
+        <v>96</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="C20" s="8" t="n">
         <v>58000</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="2" t="n">
         <v>-58</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="2" t="n">
         <v>78.45</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="2" t="n">
         <v>5384</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>13</v>
+      <c r="F22" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>101</v>
+        <v>22</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>13</v>
+        <v>113</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="7" t="n">
+        <v>115</v>
+      </c>
+      <c r="C24" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>13</v>
+      <c r="F24" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="2" t="n">
         <v>57.86</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>18</v>
+      <c r="F25" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="I26" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="2" t="n">
         <v>-12324</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G27" s="2"/>
-      <c r="I27" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="377.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="2" t="n">
         <v>1.93</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G28" s="2"/>
-      <c r="I28" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2019</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="I29" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="2" t="n">
         <v>0.69</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G30" s="2"/>
-      <c r="I30" s="2" t="s">
-        <v>132</v>
+      <c r="H30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="G31" s="2"/>
-    </row>
-    <row r="32" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="2" t="n">
         <v>7.2</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>13</v>
+      <c r="F32" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" s="2" t="n">
         <v>0.85</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>13</v>
+      <c r="F33" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>13</v>
+        <v>157</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="2" t="n">
         <v>298.08</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>13</v>
+      <c r="F35" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>153</v>
+        <v>22</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2017</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="I36" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" s="2" t="n">
         <v>51970</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="G38" s="2"/>
+      <c r="H38" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="I38" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="G39" s="2"/>
-      <c r="I39" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D40" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E40" s="2" t="n">
         <v>85.34</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>13</v>
+      <c r="F40" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D41" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E41" s="2" t="n">
         <v>2810639769</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G41" s="2"/>
-      <c r="I41" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G42" s="2"/>
-      <c r="I42" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E43" s="2" t="n">
         <v>0.11</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D44" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E44" s="2" t="n">
         <v>2248</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G44" s="2"/>
-      <c r="I44" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2018</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="G45" s="2"/>
-      <c r="I45" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E46" s="2" t="n">
         <v>-32.34</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>203</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E47" s="2" t="n">
         <v>828035.14</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>13</v>
+        <v>210</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D49" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E49" s="2" t="n">
         <v>153.07</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>13</v>
+      <c r="F49" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>206</v>
+        <v>22</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c r="G50" s="2"/>
+      <c r="H50" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="I50" s="2" t="s">
-        <v>210</v>
+        <v>33</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D51" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E51" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>13</v>
+      <c r="F51" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D52" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E52" s="2" t="n">
         <v>10.94</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D53" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E53" s="2" t="n">
         <v>12764.5</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>13</v>
+      <c r="F53" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D54" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E54" s="2" t="n">
         <v>3.9</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>13</v>
+      <c r="F54" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D55" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E55" s="2" t="n">
         <v>69.71</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>13</v>
+      <c r="F55" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D56" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E56" s="2" t="n">
         <v>0.9</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>13</v>
+      <c r="F56" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>75</v>
+        <v>246</v>
       </c>
       <c r="G57" s="2"/>
-    </row>
-    <row r="58" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D58" s="2" t="n">
+        <v>248</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E58" s="2" t="n">
         <v>3604.67</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>242</v>
+        <v>5</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>11</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="G59" s="2"/>
-      <c r="I59" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C60" s="5" t="n">
+        <v>256</v>
+      </c>
+      <c r="C60" s="6" t="n">
         <v>0.803</v>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E60" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G60" s="2"/>
-      <c r="I60" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>13</v>
+        <v>261</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D62" s="2" t="n">
+        <v>264</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E62" s="2" t="n">
         <v>-3006</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2019</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>127</v>
+        <v>269</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="G63" s="2"/>
-      <c r="I63" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D64" s="2" t="n">
+        <v>271</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E64" s="2" t="n">
         <v>14972</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>18</v>
+      <c r="F64" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C65" s="5" t="n">
+        <v>276</v>
+      </c>
+      <c r="C65" s="6" t="n">
         <v>0.559</v>
       </c>
-      <c r="D65" s="2" t="n">
+      <c r="D65" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E65" s="2" t="n">
         <v>50.69</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>278</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D66" s="2" t="n">
+        <v>280</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E66" s="2" t="n">
         <v>887816</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="G66" s="2"/>
+      <c r="H66" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="I66" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>266</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>164</v>
+        <v>285</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="G67" s="2"/>
-      <c r="I67" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H67" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D68" s="2" t="n">
+        <v>287</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E68" s="2" t="n">
         <v>2.42</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G68" s="2"/>
-      <c r="I68" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>6</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="G69" s="2"/>
-      <c r="I69" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H69" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>13</v>
+        <v>297</v>
       </c>
       <c r="G70" s="2"/>
-      <c r="I70" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2017</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="G71" s="2"/>
-      <c r="I71" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H71" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>296</v>
+        <v>302</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>303</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>13</v>
+        <v>304</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D73" s="2" t="n">
+        <v>306</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E73" s="2" t="n">
         <v>0.95</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="G73" s="2"/>
+      <c r="H73" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="I73" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>266</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D74" s="2" t="n">
+        <v>310</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E74" s="2" t="n">
         <v>10160</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>18</v>
+      <c r="F74" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D75" s="2" t="n">
+        <v>314</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E75" s="2" t="n">
         <v>0.73</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>13</v>
+      <c r="F75" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2019</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>127</v>
+        <v>319</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="G76" s="2"/>
-      <c r="I76" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H76" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D77" s="2" t="n">
+        <v>321</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E77" s="2" t="n">
         <v>8809</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>315</v>
+        <v>63</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>325</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>321</v>
+        <v>327</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="G78" s="2"/>
-    </row>
-    <row r="79" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2018</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>74</v>
+        <v>333</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="G79" s="2"/>
-      <c r="I79" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H79" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2017</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>156</v>
+        <v>336</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="G80" s="2"/>
-      <c r="I80" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H80" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D81" s="2" t="n">
+        <v>338</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E81" s="2" t="n">
         <v>121736</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>332</v>
+        <v>5</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q81" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>13</v>
+        <v>344</v>
       </c>
       <c r="G82" s="2"/>
-      <c r="I82" s="2" t="s">
-        <v>336</v>
+      <c r="H82" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q82" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>340</v>
+        <v>346</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>347</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>13</v>
+        <v>348</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="D84" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E84" s="2" t="n">
         <v>70.37</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>13</v>
+      <c r="F84" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D85" s="2" t="n">
+        <v>354</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E85" s="2" t="n">
         <v>171.09</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q85" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="D86" s="2" t="n">
+        <v>358</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E86" s="2" t="n">
         <v>211471.5</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q86" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="D87" s="2" t="n">
+        <v>362</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E87" s="2" t="n">
         <v>1072</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>266</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q87" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="D88" s="2" t="n">
+        <v>366</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E88" s="2" t="n">
         <v>7.69</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>13</v>
+      <c r="F88" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q88" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="D89" s="2" t="n">
+        <v>370</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E89" s="2" t="n">
         <v>0.63</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>13</v>
+      <c r="F89" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="D90" s="2" t="n">
+        <v>374</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E90" s="2" t="n">
         <v>27.65</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F90" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>368</v>
+        <v>46</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>372</v>
+        <v>378</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>379</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>13</v>
+        <v>380</v>
       </c>
       <c r="G91" s="2"/>
-    </row>
-    <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H91" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q91" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C92" s="5" t="n">
+        <v>382</v>
+      </c>
+      <c r="C92" s="6" t="n">
         <v>2018</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>74</v>
+        <v>383</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="G92" s="2"/>
-      <c r="I92" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H92" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q92" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>379</v>
+        <v>385</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>386</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>13</v>
+        <v>387</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q93" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>383</v>
+        <v>389</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>390</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>13</v>
+        <v>391</v>
       </c>
       <c r="G94" s="2"/>
-    </row>
-    <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H94" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q94" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>394</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>13</v>
+        <v>395</v>
       </c>
       <c r="G95" s="2"/>
-    </row>
-    <row r="96" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H95" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q95" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="D96" s="2" t="n">
+        <v>397</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E96" s="2" t="n">
         <v>4.29</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>13</v>
+      <c r="F96" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P96" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q96" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C97" s="2" t="n">
         <v>6</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>209</v>
+        <v>402</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="G97" s="2"/>
-      <c r="I97" s="2" t="s">
-        <v>394</v>
+      <c r="H97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q97" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>75</v>
+        <v>404</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="G98" s="2"/>
+      <c r="H98" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P98" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q98" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="D99" s="2" t="n">
+        <v>408</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E99" s="2" t="n">
         <v>45.3</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>13</v>
+      <c r="F99" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>402</v>
+        <v>22</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P99" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q99" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>135</v>
+        <v>412</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>127</v>
+        <v>413</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="G100" s="2"/>
-      <c r="I100" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H100" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P100" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q100" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="D101" s="2" t="n">
+        <v>415</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E101" s="2" t="n">
         <v>258002</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F101" s="2" t="s">
-        <v>257</v>
+        <v>63</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>409</v>
+        <v>266</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q101" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
